--- a/Software Specification/Tracability/RTM.xlsx
+++ b/Software Specification/Tracability/RTM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7548" yWindow="0" windowWidth="21504" windowHeight="9780"/>
+    <workbookView xWindow="10356" yWindow="0" windowWidth="21504" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>RTM</t>
   </si>
@@ -192,13 +192,34 @@
   </si>
   <si>
     <t>Req_PO3_DGW_SRS_37_ V01.2</t>
+  </si>
+  <si>
+    <t>Document Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CYRS</t>
+  </si>
+  <si>
+    <t>HIS</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>Proposed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,16 +264,60 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -347,28 +412,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+      <top style="medium">
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
       </left>
       <right/>
       <top/>
@@ -377,22 +453,90 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
+      <right style="medium">
+        <color theme="1"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -400,70 +544,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,6 +648,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -797,7 +979,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,376 +996,491 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="32" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="32" t="s">
+      <c r="E15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="29" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="32" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="29" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="29" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D21" s="32" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D22" s="32" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
-      <c r="D23" s="32" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
-      <c r="D24" s="32" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="33"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="32" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="32" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="32" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="32" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="32" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D31" s="32" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D32" s="32" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="32" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="32" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="32" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="32" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="32" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="32" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D41" s="32" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="32" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="32" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="32" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D45" s="32" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D46" s="32" t="s">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="21"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="25" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Software Specification/Tracability/RTM.xlsx
+++ b/Software Specification/Tracability/RTM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10356" yWindow="0" windowWidth="21504" windowHeight="9780"/>
+    <workbookView xWindow="12624" yWindow="0" windowWidth="21504" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>RTM</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Req_PO3_DGW_SRS_05_ V01.2</t>
   </si>
   <si>
-    <t>Req_PO3_DGW_ HSI_02_V01</t>
-  </si>
-  <si>
     <t>Req_PO3_DGW_ HSI_03_V01</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Req_PO3_DGW_SRS_11_ V01.2</t>
   </si>
   <si>
-    <t>Req_ PO3_DGW_CYRS_06_V01.1</t>
-  </si>
-  <si>
     <t>Req_PO3_DGW_SRS_12_ V01.2</t>
   </si>
   <si>
@@ -161,39 +155,6 @@
     <t>Req_PO3_DGW_SRS_26_ V01.2</t>
   </si>
   <si>
-    <t>Req_PO3_DGW_SRS_27_ V01.2</t>
-  </si>
-  <si>
-    <t>Req_PO3_DGW_SRS_28_ V01.2</t>
-  </si>
-  <si>
-    <t>Req_PO3_DGW_SRS_29_ V01.2</t>
-  </si>
-  <si>
-    <t>Req_PO3_DGW_SRS_30_ V01.2</t>
-  </si>
-  <si>
-    <t>Req_PO3_DGW_SRS_31_ V01.2</t>
-  </si>
-  <si>
-    <t>Req_PO3_DGW_SRS_32_ V01.2</t>
-  </si>
-  <si>
-    <t>Req_PO3_DGW_SRS_33_ V01.2</t>
-  </si>
-  <si>
-    <t>Req_PO3_DGW_SRS_34_ V01.2</t>
-  </si>
-  <si>
-    <t>Req_PO3_DGW_SRS_35_ V01.2</t>
-  </si>
-  <si>
-    <t>Req_PO3_DGW_SRS_36_ V01.2</t>
-  </si>
-  <si>
-    <t>Req_PO3_DGW_SRS_37_ V01.2</t>
-  </si>
-  <si>
     <t>Document Name</t>
   </si>
   <si>
@@ -213,6 +174,30 @@
   </si>
   <si>
     <t>Proposed</t>
+  </si>
+  <si>
+    <t>Req_ PO3_DGW_CYRS_07_V01.1</t>
+  </si>
+  <si>
+    <t>Req_ PO3_DGW_CYRS_08_V01.1</t>
+  </si>
+  <si>
+    <t>Req_ PO3_DGW_CYRS_09_V01.1</t>
+  </si>
+  <si>
+    <t>Req_ PO3_DGW_CYRS_10_V01.1</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_HSI_02_V01</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_ HSI_04_V01</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_ HSI_05_V01</t>
+  </si>
+  <si>
+    <t>Released</t>
   </si>
 </sst>
 </file>
@@ -317,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -412,17 +397,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -536,6 +510,71 @@
       <top/>
       <bottom style="medium">
         <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,7 +583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -561,70 +600,60 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -641,6 +670,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,105 +1041,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="2"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="3"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -1112,377 +1157,370 @@
       <c r="H9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+      <c r="B11" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="24" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="D15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="10">
+    </row>
+    <row r="16" spans="1:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="13">
         <v>1.5</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="G16" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="24" t="s">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1.3</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28" t="s">
+      <c r="D18" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="23"/>
+      <c r="D21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="28" t="s">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="24" t="s">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="24" t="s">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>30</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24" t="s">
-        <v>33</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="24" t="s">
-        <v>34</v>
+      <c r="A26" s="17"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="24" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="24" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="24" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="24" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="24" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="24" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="21"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="25" t="s">
-        <v>54</v>
-      </c>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="50"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="53"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="31"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C48" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Software Specification/Tracability/RTM.xlsx
+++ b/Software Specification/Tracability/RTM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12624" yWindow="0" windowWidth="21504" windowHeight="9780"/>
+    <workbookView xWindow="14892" yWindow="0" windowWidth="21504" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>RTM</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Released</t>
+  </si>
+  <si>
+    <t>GDD Requirment ID</t>
+  </si>
+  <si>
+    <t>CDD Requirment ID</t>
   </si>
 </sst>
 </file>
@@ -302,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -573,6 +579,21 @@
         <color theme="1"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -583,14 +604,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -654,6 +674,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -670,21 +707,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1021,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1033,7 +1063,7 @@
     <col min="3" max="3" width="47.6640625" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="24.5546875" customWidth="1"/>
     <col min="9" max="9" width="11.109375" customWidth="1"/>
     <col min="10" max="10" width="23.44140625" customWidth="1"/>
@@ -1041,486 +1071,499 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
       <c r="G1" s="2"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="3"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:12" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
     </row>
     <row r="9" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>58</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="51" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="28" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="22" t="s">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="21" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F15" s="9">
         <v>1.6</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+    <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F16" s="7">
         <v>1.5</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24" t="s">
+    <row r="17" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="12">
         <v>1.5</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="22" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24" t="s">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24" t="s">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="24" t="s">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="23"/>
-      <c r="D21" s="22" t="s">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="22"/>
+      <c r="D22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22" t="s">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="22" t="s">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22" t="s">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="22" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="22" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="22" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="22" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="22" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="22" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="22" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="50"/>
-    </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="22"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="22"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="20"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="53"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C47" s="31"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="30"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="16"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="19"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="37"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C48" s="30"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="29"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Software Specification/Tracability/RTM.xlsx
+++ b/Software Specification/Tracability/RTM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14892" yWindow="0" windowWidth="21504" windowHeight="9780"/>
+    <workbookView xWindow="17160" yWindow="0" windowWidth="21504" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="86">
   <si>
     <t>RTM</t>
   </si>
@@ -204,6 +204,87 @@
   </si>
   <si>
     <t>CDD Requirment ID</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_01_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_02_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_03_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_04_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_05_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_06_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_07_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_08_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_09_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_10_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_LCD_CDD_01_V01</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_LCD_CDD_02_V01</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_11_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_12_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_13_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_14_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_15_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_16_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_17_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_18_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_19_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_20_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_21_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_22_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_23_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_24_V01.0</t>
+  </si>
+  <si>
+    <t>Req_PO3_DGW_GDD_25_V01.0</t>
   </si>
 </sst>
 </file>
@@ -308,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -472,17 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -599,12 +669,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -635,9 +727,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,47 +738,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -707,15 +805,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,128 +1175,129 @@
     <col min="3" max="3" width="47.6640625" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
     <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="30.21875" customWidth="1"/>
     <col min="7" max="7" width="24.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1"/>
     <col min="9" max="9" width="11.109375" customWidth="1"/>
     <col min="10" max="10" width="23.44140625" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="2"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="3"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="4"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" spans="1:12" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="39" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="5"/>
@@ -1192,378 +1305,1403 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="E10" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="27" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="21" t="s">
+      <c r="E13" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="36"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="36"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="20" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="E17" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="H19" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="E23" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="62"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="62"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="57"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="62"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="E27" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="26"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="26"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="26"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23" t="s">
+      <c r="E31" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D33" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="21" t="s">
+      <c r="E33" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="15"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="15"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23" t="s">
+      <c r="E45" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="15"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D49" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23" t="s">
+      <c r="E49" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="15"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="57"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="15"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="15"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D57" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="23" t="s">
+      <c r="E57" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="15"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="57"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D61" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="22"/>
-      <c r="D22" s="21" t="s">
+      <c r="E61" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="15"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="15"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="15"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="15"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="15"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="15"/>
+      <c r="B68" s="21"/>
+      <c r="D68" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="21" t="s">
+      <c r="E68" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="16"/>
+      <c r="B69" s="27"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="16"/>
+      <c r="B70" s="27"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="16"/>
+      <c r="B71" s="27"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="15"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21" t="s">
+      <c r="E72" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="15"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="15"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="15"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="17"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21" t="s">
+      <c r="E76" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="15"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="15"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="57"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="15"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F79" s="57"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="15"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="23" t="s">
+      <c r="E80" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="15"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="15"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="15"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="15"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="15"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="15"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D86" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21" t="s">
+      <c r="E86" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="15"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="15"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="57"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="15"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="15"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="15"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="21" t="s">
+      <c r="E91" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="15"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="15"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="15"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="F94" s="57"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="15"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="F95" s="57"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="15"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="21" t="s">
+      <c r="E96" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="15"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="F97" s="56"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="15"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F98" s="56"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="15"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="F99" s="56"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="15"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="F100" s="56"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="15"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="21" t="s">
+      <c r="E101" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="15"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="15"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="15"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="15"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="15"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="21" t="s">
+      <c r="E106" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="15"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="15"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="15"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="15"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="15"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23" t="s">
+      <c r="E111" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="15"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="15"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="15"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="15"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="15"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D116" s="20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="21" t="s">
+      <c r="E116" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="15"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="15"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="15"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="F119" s="57"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="15"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="15"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="15"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="21"/>
+      <c r="D122" s="20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21" t="s">
+      <c r="E122" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="15"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F123" s="57"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="15"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="21"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="15"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="15"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="15"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="21" t="s">
+      <c r="E127" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="15"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="15"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="15"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="15"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="21"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="15"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="21"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F132" s="57"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="15"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="21"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="15"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="21"/>
+      <c r="D134" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="21" t="s">
+      <c r="E134" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="15"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="21"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="15"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="21"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="15"/>
+      <c r="B137" s="21"/>
+      <c r="C137" s="21"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="15"/>
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="15"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="34"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="21"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="21"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="16"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="19"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="37"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C48" s="30"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="29"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="29"/>
+      <c r="E139" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="15"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="21"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="15"/>
+      <c r="B141" s="21"/>
+      <c r="C141" s="21"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="15"/>
+      <c r="B142" s="21"/>
+      <c r="C142" s="21"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="15"/>
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="15"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="20"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="15"/>
+      <c r="B145" s="21"/>
+      <c r="C145" s="21"/>
+      <c r="D145" s="20"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="15"/>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
+      <c r="D146" s="20"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="15"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="20"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="15"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="20"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="15"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="20"/>
+    </row>
+    <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="18"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="35"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C151" s="29"/>
+      <c r="D151" s="34"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C152" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
